--- a/src/test/java/resources/AppcoaDataset.xlsx
+++ b/src/test/java/resources/AppcoaDataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Feature\Country</t>
   </si>
@@ -37,7 +37,7 @@
     <t>{"Email":"mrignayani@getmyparking.com","Password":"testing"}</t>
   </si>
   <si>
-    <t>{"email":"karanagarwal569@gmail.com","password":"secure@123"}</t>
+    <t>{"email":"testaustriastaging@gmail.com","password":"testing","username":"Test Automation"}</t>
   </si>
   <si>
     <t>Add Vehicle</t>
@@ -46,7 +46,13 @@
     <t>{"Vehicleno":"W 1122 R"}</t>
   </si>
   <si>
-    <t>{"vehicleLPR":"W 1122 R"}</t>
+    <t>{"lpr":"W 7777 R"}</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm -"}</t>
   </si>
 </sst>
 </file>
@@ -370,6 +376,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
